--- a/Proje/excel/1_307_16_TBL103_1.xlsx
+++ b/Proje/excel/1_307_16_TBL103_1.xlsx
@@ -375,13 +375,13 @@
     <t>Programlamanın temelleri. Akış diyagramları ve bileşenleri</t>
   </si>
   <si>
+    <t>%78,38</t>
+  </si>
+  <si>
     <t>Fonksiyonlar, diziler ve işaretçilerin kullanımı açıklar.</t>
   </si>
   <si>
     <t>Bilgisayar programlama yapılarını kullanabilmek.</t>
-  </si>
-  <si>
-    <t>%78,38</t>
   </si>
   <si>
     <t>Değişkenleri, döngüleri kullanabilmek</t>
@@ -18444,16 +18444,16 @@
         <v>117</v>
       </c>
       <c r="B2" s="1">
-        <v>65535</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
+        <v>2.61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F2" s="1">
-        <v>65535</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -18462,7 +18462,7 @@
         <v>117</v>
       </c>
       <c r="J2" s="1">
-        <v>65535</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -18470,28 +18470,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1">
-        <v>65535</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F3" s="1">
-        <v>65535</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
+        <v>2.75</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J3" s="1">
-        <v>65535</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -18499,25 +18499,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1">
-        <v>2.61</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="F4" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J4" s="1">
         <v>2.38</v>
@@ -18531,7 +18531,7 @@
         <v>121</v>
       </c>
       <c r="B5" s="1">
-        <v>65535</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -18540,7 +18540,7 @@
         <v>121</v>
       </c>
       <c r="F5" s="1">
-        <v>65535</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -18549,7 +18549,7 @@
         <v>121</v>
       </c>
       <c r="J5" s="1">
-        <v>65535</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -18584,10 +18584,10 @@
         <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>121</v>
@@ -18597,7 +18597,7 @@
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -18605,7 +18605,7 @@
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -18613,7 +18613,7 @@
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -18781,10 +18781,10 @@
         <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>121</v>
@@ -18794,7 +18794,7 @@
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -18802,7 +18802,7 @@
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -18810,7 +18810,7 @@
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -18978,10 +18978,10 @@
         <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>121</v>
